--- a/yetkinlikmatrisi.xlsx
+++ b/yetkinlikmatrisi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>Sicil No</t>
   </si>
@@ -2335,7 +2335,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2397,6 +2397,100 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/yetkinlikmatrisi.xlsx
+++ b/yetkinlikmatrisi.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga.turan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ortak Personeller" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>Sicil No</t>
   </si>
@@ -65,12 +69,6 @@
     <t>MAL KABUL</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>OKTAY ÇİÇEK</t>
   </si>
   <si>
@@ -185,14 +183,14 @@
     <t>EKSTRA STEWARD</t>
   </si>
   <si>
-    <t>tolgat</t>
+    <t>RESTAURANT CHEF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,10 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,6 +250,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -542,14 +545,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -598,16 +618,10 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="B2" t="s">
-        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -652,9 +666,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -699,9 +713,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -746,9 +760,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -793,9 +807,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -840,9 +854,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -887,9 +901,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -934,9 +948,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -981,9 +995,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1028,9 +1042,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1075,9 +1089,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -1122,9 +1136,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1169,9 +1183,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1216,9 +1230,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1263,9 +1277,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1310,9 +1324,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1357,9 +1371,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1404,9 +1418,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1451,9 +1465,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1498,9 +1512,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1545,9 +1559,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1592,9 +1606,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1639,9 +1653,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1686,9 +1700,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1733,9 +1747,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1780,9 +1794,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1827,9 +1841,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1874,9 +1888,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1921,9 +1935,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1968,9 +1982,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -2015,9 +2029,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -2038,9 +2052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -2085,9 +2099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -2132,9 +2146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -2179,9 +2193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2226,9 +2240,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -2273,12 +2287,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2320,178 +2334,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
-      <c r="Q39" t="s">
-        <v>56</v>
-      </c>
-      <c r="R39">
-        <v>12345</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>4</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K0000FFGizlilik Sınıflandırması : Hizmete Özel</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/yetkinlikmatrisi.xlsx
+++ b/yetkinlikmatrisi.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga.turan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ortak Personeller" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>Sicil No</t>
   </si>
@@ -45,152 +41,164 @@
     <t>KAPTAN</t>
   </si>
   <si>
+    <t>RESTAURANT CHEF</t>
+  </si>
+  <si>
+    <t>SOUS CHEF</t>
+  </si>
+  <si>
+    <t>CHEF DE PARTİE</t>
+  </si>
+  <si>
+    <t>DEMİ CHEF</t>
+  </si>
+  <si>
+    <t>COMMİS</t>
+  </si>
+  <si>
+    <t>STEWARD</t>
+  </si>
+  <si>
+    <t>HOUSEMAN</t>
+  </si>
+  <si>
+    <t>MAL KABUL</t>
+  </si>
+  <si>
+    <t>OKTAY ÇİÇEK</t>
+  </si>
+  <si>
+    <t>OSMAN YAMAN</t>
+  </si>
+  <si>
+    <t>CEREN SAĞLAMDEMİR</t>
+  </si>
+  <si>
+    <t>FERHAT COŞKUN</t>
+  </si>
+  <si>
+    <t>HİDAYET UYSAL</t>
+  </si>
+  <si>
+    <t>MURAT KUNU</t>
+  </si>
+  <si>
+    <t>ÇAĞATAY KAYA</t>
+  </si>
+  <si>
+    <t>MERTKAN MERÇİL</t>
+  </si>
+  <si>
+    <t>HASAN ŞİT</t>
+  </si>
+  <si>
+    <t>SİBEL DİZGE</t>
+  </si>
+  <si>
+    <t>BİLGE KURT</t>
+  </si>
+  <si>
+    <t>GÖKHAN ÖZDEMİR</t>
+  </si>
+  <si>
+    <t>DENİZ KAYIKCI</t>
+  </si>
+  <si>
+    <t>ENES BOZAN</t>
+  </si>
+  <si>
+    <t>DAMLA BAYDEMİR</t>
+  </si>
+  <si>
+    <t>ASLIHAN BAYAT</t>
+  </si>
+  <si>
+    <t>ZİYA BOZKURT</t>
+  </si>
+  <si>
+    <t>FATİH KALAYCI</t>
+  </si>
+  <si>
+    <t>NUMAN HOŞGÖR</t>
+  </si>
+  <si>
+    <t>HARUN YÜCE</t>
+  </si>
+  <si>
+    <t>MERT SÖZEN</t>
+  </si>
+  <si>
+    <t>AYŞE ÖZGE KAYA</t>
+  </si>
+  <si>
+    <t>AHMET SİNAN ABİTOĞLU</t>
+  </si>
+  <si>
+    <t>İSMAİL BİNGÖL</t>
+  </si>
+  <si>
+    <t>ALİ ERAT</t>
+  </si>
+  <si>
+    <t>DENİZ DURAK</t>
+  </si>
+  <si>
+    <t>ZEYNEP EYLÜL GÜLER</t>
+  </si>
+  <si>
+    <t>GİZEM İBİŞLER</t>
+  </si>
+  <si>
+    <t>MEHMET EMİN AYDIN</t>
+  </si>
+  <si>
+    <t>ATİLLA BATIN ÖZYEŞİL</t>
+  </si>
+  <si>
+    <t>HÜLYA BUDAK</t>
+  </si>
+  <si>
+    <t>ŞAKİR AKDAŞ</t>
+  </si>
+  <si>
+    <t>EMRULLAH ALTUN</t>
+  </si>
+  <si>
+    <t>İSLAM ÇOLAK</t>
+  </si>
+  <si>
+    <t>NİHAL BÖLÜCÜ</t>
+  </si>
+  <si>
+    <t>EMRAH YILMAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İSMET TAŞ </t>
+  </si>
+  <si>
     <t xml:space="preserve">RESTAURANT CHEF </t>
   </si>
   <si>
-    <t>SOUS CHEF</t>
-  </si>
-  <si>
-    <t>CHEF DE PARTİE</t>
-  </si>
-  <si>
-    <t>DEMİ CHEF</t>
-  </si>
-  <si>
-    <t>COMMİS</t>
-  </si>
-  <si>
-    <t>STEWARD</t>
-  </si>
-  <si>
-    <t>HOUSEMAN</t>
-  </si>
-  <si>
-    <t>MAL KABUL</t>
-  </si>
-  <si>
-    <t>OKTAY ÇİÇEK</t>
-  </si>
-  <si>
-    <t>OSMAN YAMAN</t>
-  </si>
-  <si>
-    <t>CEREN SAĞLAMDEMİR</t>
-  </si>
-  <si>
-    <t>FERHAT COŞKUN</t>
-  </si>
-  <si>
-    <t>HİDAYET UYSAL</t>
-  </si>
-  <si>
-    <t>MURAT KUNU</t>
-  </si>
-  <si>
-    <t>ÇAĞATAY KAYA</t>
-  </si>
-  <si>
-    <t>MERTKAN MERÇİL</t>
-  </si>
-  <si>
-    <t>HASAN ŞİT</t>
-  </si>
-  <si>
-    <t>SİBEL DİZGE</t>
-  </si>
-  <si>
-    <t>BİLGE KURT</t>
-  </si>
-  <si>
-    <t>GÖKHAN ÖZDEMİR</t>
-  </si>
-  <si>
-    <t>DENİZ KAYIKCI</t>
-  </si>
-  <si>
-    <t>ENES BOZAN</t>
-  </si>
-  <si>
-    <t>DAMLA BAYDEMİR</t>
-  </si>
-  <si>
-    <t>ASLIHAN BAYAT</t>
-  </si>
-  <si>
-    <t>ZİYA BOZKURT</t>
-  </si>
-  <si>
-    <t>FATİH KALAYCI</t>
-  </si>
-  <si>
-    <t>NUMAN HOŞGÖR</t>
-  </si>
-  <si>
-    <t>HARUN YÜCE</t>
-  </si>
-  <si>
-    <t>MERT SÖZEN</t>
-  </si>
-  <si>
-    <t>AYŞE ÖZGE KAYA</t>
-  </si>
-  <si>
-    <t>AHMET SİNAN ABİTOĞLU</t>
-  </si>
-  <si>
-    <t>İSMAİL BİNGÖL</t>
-  </si>
-  <si>
-    <t>ALİ ERAT</t>
-  </si>
-  <si>
-    <t>DENİZ DURAK</t>
-  </si>
-  <si>
-    <t>ZEYNEP EYLÜL GÜLER</t>
-  </si>
-  <si>
-    <t>GİZEM İBİŞLER</t>
-  </si>
-  <si>
-    <t>MEHMET EMİN AYDIN</t>
-  </si>
-  <si>
-    <t>ATİLLA BATIN ÖZYEŞİL</t>
-  </si>
-  <si>
-    <t>HÜLYA BUDAK</t>
-  </si>
-  <si>
-    <t>ŞAKİR AKDAŞ</t>
-  </si>
-  <si>
-    <t>EMRULLAH ALTUN</t>
-  </si>
-  <si>
-    <t>İSLAM ÇOLAK</t>
-  </si>
-  <si>
-    <t>NİHAL BÖLÜCÜ</t>
-  </si>
-  <si>
-    <t>EMRAH YILMAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İSMET TAŞ </t>
-  </si>
-  <si>
     <t>EKSTRA STEWARD</t>
   </si>
   <si>
-    <t>RESTAURANT CHEF</t>
+    <t>Çok İyi</t>
+  </si>
+  <si>
+    <t>İyi</t>
+  </si>
+  <si>
+    <t>Orta</t>
+  </si>
+  <si>
+    <t>BARMEN, HOSTES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +209,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,14 +261,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -545,31 +548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -619,7 +605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -666,7 +652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -713,7 +699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -760,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -807,7 +793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -854,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -901,7 +887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -948,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -995,7 +981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1042,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1089,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -1136,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1230,7 +1216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1277,7 +1263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -1324,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="B17" t="s">
         <v>31</v>
       </c>
@@ -1371,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1418,7 +1404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -1465,7 +1451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1512,12 +1498,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="B21" t="s">
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1559,7 +1545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -1606,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -1653,7 +1639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="B24" t="s">
         <v>38</v>
       </c>
@@ -1700,7 +1686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -1747,7 +1733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16">
       <c r="B26" t="s">
         <v>40</v>
       </c>
@@ -1794,7 +1780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16">
       <c r="B27" t="s">
         <v>41</v>
       </c>
@@ -1841,7 +1827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16">
       <c r="B28" t="s">
         <v>42</v>
       </c>
@@ -1888,7 +1874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16">
       <c r="B29" t="s">
         <v>43</v>
       </c>
@@ -1935,7 +1921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16">
       <c r="B30" t="s">
         <v>44</v>
       </c>
@@ -1982,7 +1968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16">
       <c r="B31" t="s">
         <v>45</v>
       </c>
@@ -2029,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>46</v>
       </c>
@@ -2052,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>47</v>
       </c>
@@ -2099,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" t="s">
         <v>48</v>
       </c>
@@ -2146,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="B35" t="s">
         <v>49</v>
       </c>
@@ -2193,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>50</v>
       </c>
@@ -2240,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="B37" t="s">
         <v>51</v>
       </c>
@@ -2287,12 +2273,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2335,10 +2321,55 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K0000FFGizlilik Sınıflandırması : Hizmete Özel</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/yetkinlikmatrisi.xlsx
+++ b/yetkinlikmatrisi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>Sicil No</t>
   </si>
@@ -182,6 +182,9 @@
     <t>EKSTRA STEWARD</t>
   </si>
   <si>
+    <t>Birim</t>
+  </si>
+  <si>
     <t>Çok İyi</t>
   </si>
   <si>
@@ -191,7 +194,16 @@
     <t>Orta</t>
   </si>
   <si>
+    <t>Loglama Saati</t>
+  </si>
+  <si>
+    <t>Eksik Saat</t>
+  </si>
+  <si>
     <t>BARMEN, HOSTES</t>
+  </si>
+  <si>
+    <t>2024-05-27 14:54:02</t>
   </si>
 </sst>
 </file>
@@ -215,12 +227,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADFF2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -250,11 +280,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2327,46 +2360,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/yetkinlikmatrisi.xlsx
+++ b/yetkinlikmatrisi.xlsx
@@ -203,7 +203,7 @@
     <t>BARMEN, HOSTES</t>
   </si>
   <si>
-    <t>2024-05-27 14:54:02</t>
+    <t>2024-05-27 15:07:46</t>
   </si>
 </sst>
 </file>

--- a/yetkinlikmatrisi.xlsx
+++ b/yetkinlikmatrisi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>Sicil No</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>2024-05-27 15:07:46</t>
+  </si>
+  <si>
+    <t>2024-05-27 15:41:42</t>
   </si>
 </sst>
 </file>
@@ -2360,7 +2363,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2372,25 +2375,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2420,6 +2423,40 @@
       </c>
       <c r="F3" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/yetkinlikmatrisi.xlsx
+++ b/yetkinlikmatrisi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>Sicil No</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>2024-05-27 15:41:42</t>
+  </si>
+  <si>
+    <t>2024-05-27 15:42:42</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2366,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2459,6 +2462,40 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/yetkinlikmatrisi.xlsx
+++ b/yetkinlikmatrisi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>Sicil No</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>2024-05-27 15:42:42</t>
+  </si>
+  <si>
+    <t>2024-06-24 08:45:02</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2369,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2496,6 +2499,40 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/yetkinlikmatrisi.xlsx
+++ b/yetkinlikmatrisi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
   <si>
     <t>Sicil No</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>2024-06-24 08:45:02</t>
+  </si>
+  <si>
+    <t>2024-06-24 11:36:21</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2372,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2533,6 +2536,40 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/yetkinlikmatrisi.xlsx
+++ b/yetkinlikmatrisi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
   <si>
     <t>Sicil No</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>2024-06-24 11:36:21</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:19:09</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2375,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2570,6 +2573,40 @@
         <v>27</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
